--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Master\Machine learning in applications\mla-prj-23-zomm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B869DD-801D-4520-B295-1DC7ABDD79E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF186A3F-6768-48F1-A027-16C8FDF7FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B416CC3-3AED-4146-89A3-0A909EA57107}"/>
   </bookViews>
@@ -369,54 +369,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -427,24 +445,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,7 +764,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,35 +779,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="26" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="24" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -815,190 +815,220 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="15">
         <v>30</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="8">
         <v>30</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="7">
         <v>79.430000000000007</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="7">
         <v>75.25</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="12">
         <v>77.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="16"/>
-      <c r="C4" s="18">
+      <c r="C4" s="8">
         <v>50</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="18">
+      <c r="D4" s="24"/>
+      <c r="E4" s="8">
         <v>72.48</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="8">
         <v>69.25</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="4">
         <v>79.94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="16"/>
-      <c r="C5" s="19">
+      <c r="C5" s="6">
         <v>70</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="28"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="6">
+        <v>55.79</v>
+      </c>
+      <c r="F5" s="6">
+        <v>63.24</v>
+      </c>
+      <c r="G5" s="13">
+        <v>58.91</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
+      <c r="A6" s="19"/>
       <c r="B6" s="16">
         <v>50</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>30</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="17">
+      <c r="D6" s="24"/>
+      <c r="E6" s="7">
         <v>70.959999999999994</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="7">
         <v>69.040000000000006</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="12">
         <v>74.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="18">
+      <c r="C7" s="8">
         <v>50</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="18">
+      <c r="D7" s="24"/>
+      <c r="E7" s="8">
         <v>64.760000000000005</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="8">
         <v>69.349999999999994</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="4">
         <v>70.55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="19">
+      <c r="C8" s="6">
         <v>70</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="19">
+      <c r="D8" s="24"/>
+      <c r="E8" s="6">
         <v>68.2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="6">
         <v>70.209999999999994</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="13">
         <v>66.27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="16">
         <v>70</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="7">
         <v>30</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="27"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="7">
+        <v>73.39</v>
+      </c>
+      <c r="F9" s="7">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="G9" s="12">
+        <v>73.03</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="18">
+      <c r="C10" s="8">
         <v>50</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="18">
+      <c r="D10" s="24"/>
+      <c r="E10" s="8">
         <v>67.53</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="8">
         <v>64.23</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="4">
         <v>76.03</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="19">
+      <c r="C11" s="6">
         <v>70</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="28"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="6">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="F11" s="6">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="G11" s="13">
+        <v>74.34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="16">
         <v>100</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="7">
         <v>30</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="7">
+        <v>76.52</v>
+      </c>
+      <c r="F12" s="8">
+        <v>73.39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>88.24</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="18">
+      <c r="C13" s="8">
         <v>50</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="18">
+      <c r="D13" s="24"/>
+      <c r="E13" s="8">
         <v>76.37</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F13" s="8">
         <v>71.58</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="4">
         <v>74.33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="10">
         <v>70</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="10">
+        <v>74.53</v>
+      </c>
+      <c r="F14" s="10">
+        <v>73.209999999999994</v>
+      </c>
+      <c r="G14" s="5">
+        <v>83.96</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
@@ -1007,8 +1037,6 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="D3:D14"/>
@@ -1018,6 +1046,8 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Master\Machine learning in applications\mla-prj-23-zomm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF186A3F-6768-48F1-A027-16C8FDF7FFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B94E3A-7B0C-4BD1-B625-9A543DE7AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B416CC3-3AED-4146-89A3-0A909EA57107}"/>
   </bookViews>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -138,15 +138,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -159,26 +150,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -350,6 +321,114 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -358,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,85 +445,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33A4E11F-B9B1-4814-AE02-09C1ED1F1198}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -779,264 +894,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="11" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="9" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="26">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="6">
         <v>30</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>79.430000000000007</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>75.25</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="3">
         <v>77.53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="8">
+      <c r="A4" s="34"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="8">
+      <c r="D4" s="23"/>
+      <c r="E4" s="6">
         <v>72.48</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="6">
         <v>69.25</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <v>79.94</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="6">
+      <c r="A5" s="34"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="4">
         <v>70</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="6">
+      <c r="D5" s="23"/>
+      <c r="E5" s="4">
         <v>55.79</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>63.24</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>58.91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="16">
+      <c r="A6" s="34"/>
+      <c r="B6" s="31">
         <v>50</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="7">
+      <c r="D6" s="23"/>
+      <c r="E6" s="5">
         <v>70.959999999999994</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>69.040000000000006</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>74.7</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="8">
+      <c r="A7" s="34"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="6">
         <v>50</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="8">
+      <c r="D7" s="23"/>
+      <c r="E7" s="6">
         <v>64.760000000000005</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="6">
         <v>69.349999999999994</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="3">
         <v>70.55</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="6">
+      <c r="A8" s="34"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="4">
         <v>70</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="6">
+      <c r="D8" s="23"/>
+      <c r="E8" s="4">
         <v>68.2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="4">
         <v>70.209999999999994</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="10">
         <v>66.27</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="16">
+      <c r="A9" s="34"/>
+      <c r="B9" s="31">
         <v>70</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="7">
+      <c r="D9" s="23"/>
+      <c r="E9" s="5">
         <v>73.39</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>64.180000000000007</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="9">
         <v>73.03</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="8">
+      <c r="A10" s="34"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="6">
         <v>50</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="8">
+      <c r="D10" s="23"/>
+      <c r="E10" s="6">
         <v>67.53</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>64.23</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="3">
         <v>76.03</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="6">
+      <c r="A11" s="34"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="4">
         <v>70</v>
       </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="6">
+      <c r="D11" s="23"/>
+      <c r="E11" s="4">
         <v>68.459999999999994</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="4">
         <v>65.650000000000006</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>74.34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="16">
+      <c r="A12" s="34"/>
+      <c r="B12" s="31">
         <v>100</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>30</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="7">
+      <c r="D12" s="23"/>
+      <c r="E12" s="5">
         <v>76.52</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="6">
         <v>73.39</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>88.24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="8">
+      <c r="A13" s="34"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="6">
         <v>50</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="8">
+      <c r="D13" s="23"/>
+      <c r="E13" s="6">
         <v>76.37</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="6">
         <v>71.58</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>74.33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="20"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="7">
         <v>70</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="10">
+      <c r="D14" s="24"/>
+      <c r="E14" s="6">
         <v>74.53</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>73.209999999999994</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="3">
         <v>83.96</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="25">
+        <v>30</v>
+      </c>
+      <c r="C15" s="25">
+        <v>30</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>2</v>
+      <c r="A16" s="28"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="22">
+        <v>100</v>
+      </c>
+      <c r="C18" s="22">
+        <v>30</v>
+      </c>
+      <c r="D18" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="12">
+        <v>73.64</v>
+      </c>
+      <c r="F20" s="12">
+        <v>75</v>
+      </c>
+      <c r="G20" s="19">
+        <v>85.83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="D3:D14"/>
@@ -1048,6 +1240,11 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Master\Machine learning in applications\mla-prj-23-zomm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B94E3A-7B0C-4BD1-B625-9A543DE7AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880ECAF8-B67D-46B9-9236-2958A5DF7FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B416CC3-3AED-4146-89A3-0A909EA57107}"/>
   </bookViews>
@@ -103,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -341,6 +341,19 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -353,37 +366,62 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -392,52 +430,42 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,10 +497,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -481,52 +509,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -879,7 +916,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,52 +931,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="32"/>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="39"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="20" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26">
+      <c r="B3" s="33">
         <v>30</v>
       </c>
       <c r="C3" s="6">
         <v>30</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="6">
@@ -953,29 +990,29 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="6">
         <v>50</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="6">
         <v>72.48</v>
       </c>
       <c r="F4" s="6">
-        <v>69.25</v>
+        <v>70.09</v>
       </c>
       <c r="G4" s="3">
-        <v>79.94</v>
+        <v>79.7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
-      <c r="B5" s="31"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="4">
         <v>70</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="4">
         <v>55.79</v>
       </c>
@@ -983,18 +1020,18 @@
         <v>63.24</v>
       </c>
       <c r="G5" s="10">
-        <v>58.91</v>
+        <v>58.83</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="34"/>
-      <c r="B6" s="31">
+      <c r="A6" s="37"/>
+      <c r="B6" s="34">
         <v>50</v>
       </c>
       <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="5">
         <v>70.959999999999994</v>
       </c>
@@ -1002,33 +1039,33 @@
         <v>69.040000000000006</v>
       </c>
       <c r="G6" s="9">
-        <v>74.7</v>
+        <v>74.56</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="31"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="6">
         <v>50</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="6">
         <v>64.760000000000005</v>
       </c>
       <c r="F7" s="6">
-        <v>69.349999999999994</v>
+        <v>68.69</v>
       </c>
       <c r="G7" s="3">
-        <v>70.55</v>
+        <v>70.28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="31"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="4">
         <v>70</v>
       </c>
-      <c r="D8" s="23"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="4">
         <v>68.2</v>
       </c>
@@ -1040,14 +1077,14 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="34"/>
-      <c r="B9" s="31">
+      <c r="A9" s="37"/>
+      <c r="B9" s="34">
         <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>30</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="5">
         <v>73.39</v>
       </c>
@@ -1059,12 +1096,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="34"/>
-      <c r="B10" s="31"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="34"/>
       <c r="C10" s="6">
         <v>50</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="6">
         <v>67.53</v>
       </c>
@@ -1072,16 +1109,16 @@
         <v>64.23</v>
       </c>
       <c r="G10" s="3">
-        <v>76.03</v>
+        <v>75.84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
-      <c r="B11" s="31"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="34"/>
       <c r="C11" s="4">
         <v>70</v>
       </c>
-      <c r="D11" s="23"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="4">
         <v>68.459999999999994</v>
       </c>
@@ -1093,138 +1130,168 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="34"/>
-      <c r="B12" s="31">
+      <c r="A12" s="37"/>
+      <c r="B12" s="34">
         <v>100</v>
       </c>
       <c r="C12" s="5">
         <v>30</v>
       </c>
-      <c r="D12" s="23"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="5">
         <v>76.52</v>
       </c>
       <c r="F12" s="6">
-        <v>73.39</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="G12" s="3">
         <v>88.24</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="34"/>
-      <c r="B13" s="31"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="6">
         <v>50</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="27"/>
       <c r="E13" s="6">
         <v>76.37</v>
       </c>
       <c r="F13" s="6">
-        <v>71.58</v>
+        <v>72.34</v>
       </c>
       <c r="G13" s="3">
         <v>74.33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="7">
         <v>70</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="6">
+      <c r="D14" s="23"/>
+      <c r="E14" s="7">
         <v>74.53</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>73.209999999999994</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="18">
         <v>83.96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="26">
         <v>30</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="24">
         <v>30</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="6">
         <v>1E-3</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
+      <c r="E15" s="1">
+        <v>81.17</v>
+      </c>
+      <c r="F15" s="6">
+        <v>77.03</v>
+      </c>
+      <c r="G15" s="17">
+        <v>74.72</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="14">
+      <c r="A16" s="30"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="6">
         <v>0.01</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
+      <c r="E16" s="1">
+        <v>79.44</v>
+      </c>
+      <c r="F16" s="6">
+        <v>75.73</v>
+      </c>
+      <c r="G16" s="17">
+        <v>81.7</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="14">
+      <c r="A17" s="30"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="4">
         <v>0.1</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="18"/>
+      <c r="E17" s="1">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="F17" s="6">
+        <v>75.97</v>
+      </c>
+      <c r="G17" s="17">
+        <v>79.86</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="22">
+      <c r="A18" s="30"/>
+      <c r="B18" s="28">
         <v>100</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>30</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="6">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="18"/>
+      <c r="E18" s="14">
+        <v>79.03</v>
+      </c>
+      <c r="F18" s="13">
+        <v>76.47</v>
+      </c>
+      <c r="G18" s="16">
+        <v>82.89</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="14">
+      <c r="A19" s="30"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="6">
         <v>0.01</v>
       </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="18"/>
+      <c r="E19" s="1">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="F19" s="15">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="G19" s="17">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="15">
+      <c r="A20" s="31"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="19">
         <v>0.1</v>
       </c>
-      <c r="E20" s="12">
-        <v>73.64</v>
-      </c>
-      <c r="F20" s="12">
-        <v>75</v>
-      </c>
-      <c r="G20" s="19">
-        <v>85.83</v>
+      <c r="E20" s="19">
+        <v>81.03</v>
+      </c>
+      <c r="F20" s="19">
+        <v>76.92</v>
+      </c>
+      <c r="G20" s="20">
+        <v>81.540000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\Master\Machine learning in applications\mla-prj-23-zomm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880ECAF8-B67D-46B9-9236-2958A5DF7FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE23CE-8A06-4A44-9F49-115415CB063F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8B416CC3-3AED-4146-89A3-0A909EA57107}"/>
   </bookViews>
@@ -527,27 +527,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -558,45 +597,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -916,7 +916,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -931,31 +931,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="32"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="40"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="11" t="s">
         <v>7</v>
       </c>
@@ -967,10 +967,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="34">
         <v>30</v>
       </c>
       <c r="C3" s="6">
@@ -990,8 +990,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
-      <c r="B4" s="34"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="6">
         <v>50</v>
       </c>
@@ -1007,8 +1007,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="4">
         <v>70</v>
       </c>
@@ -1024,8 +1024,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="34">
+      <c r="A6" s="22"/>
+      <c r="B6" s="35">
         <v>50</v>
       </c>
       <c r="C6" s="5">
@@ -1043,8 +1043,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37"/>
-      <c r="B7" s="34"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="6">
         <v>50</v>
       </c>
@@ -1060,8 +1060,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="37"/>
-      <c r="B8" s="34"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="4">
         <v>70</v>
       </c>
@@ -1077,8 +1077,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="37"/>
-      <c r="B9" s="34">
+      <c r="A9" s="22"/>
+      <c r="B9" s="35">
         <v>70</v>
       </c>
       <c r="C9" s="5">
@@ -1096,8 +1096,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="6">
         <v>50</v>
       </c>
@@ -1113,8 +1113,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37"/>
-      <c r="B11" s="34"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="4">
         <v>70</v>
       </c>
@@ -1130,8 +1130,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="37"/>
-      <c r="B12" s="34">
+      <c r="A12" s="22"/>
+      <c r="B12" s="35">
         <v>100</v>
       </c>
       <c r="C12" s="5">
@@ -1149,8 +1149,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="37"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="6">
         <v>50</v>
       </c>
@@ -1166,12 +1166,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38"/>
-      <c r="B14" s="35"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="7">
         <v>70</v>
       </c>
-      <c r="D14" s="23"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="7">
         <v>74.53</v>
       </c>
@@ -1183,13 +1183,13 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="42" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="26">
         <v>30</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="39">
         <v>30</v>
       </c>
       <c r="D15" s="6">
@@ -1206,9 +1206,9 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="6">
         <v>0.01</v>
       </c>
@@ -1223,9 +1223,9 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="4">
         <v>0.1</v>
       </c>
@@ -1240,11 +1240,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="28">
+      <c r="A18" s="43"/>
+      <c r="B18" s="41">
         <v>100</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="37">
         <v>30</v>
       </c>
       <c r="D18" s="6">
@@ -1261,57 +1261,57 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="22"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="6">
         <v>0.01</v>
       </c>
       <c r="E19" s="1">
-        <v>75.099999999999994</v>
+        <v>76.8</v>
       </c>
       <c r="F19" s="15">
-        <v>72.900000000000006</v>
+        <v>75</v>
       </c>
       <c r="G19" s="17">
-        <v>87.7</v>
+        <v>86.1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
       <c r="D20" s="19">
         <v>0.1</v>
       </c>
       <c r="E20" s="19">
-        <v>81.03</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="F20" s="19">
-        <v>76.92</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="G20" s="20">
-        <v>81.540000000000006</v>
+        <v>87.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="D3:D14"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A15:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
